--- a/FrontEnd/src/components/ServiceData/Balance_Sheet.xlsx
+++ b/FrontEnd/src/components/ServiceData/Balance_Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyStuff\George Brown\Year 3\2 Semester\CAPSTONE PROJECT 02\Github\CapStone-FA\FrontEnd\src\components\ServiceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6A488D-33AD-46D9-97BF-3D54049D3EF2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF6E03E-DE23-4BCE-8324-25D01099F760}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Year</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Email Address:</t>
+  </si>
+  <si>
+    <t>Your Email Here</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -421,25 +424,32 @@
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>2012</v>
+        <f t="shared" ref="B5:D5" si="0">C5-1</f>
+        <v>2017</v>
       </c>
       <c r="C5">
-        <v>2013</v>
+        <f t="shared" si="0"/>
+        <v>2018</v>
       </c>
       <c r="D5">
-        <v>2014</v>
+        <f t="shared" si="0"/>
+        <v>2019</v>
       </c>
       <c r="E5">
-        <v>2015</v>
+        <f>F5-1</f>
+        <v>2020</v>
       </c>
       <c r="F5">
-        <v>2016</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -447,23 +457,19 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <f>$F6-($F6*23%)</f>
-        <v>184453.13068119239</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f>$F6-($F6*45%)</f>
-        <v>131752.23620085168</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <f>$F6-($F6*30%)</f>
-        <v>167684.66425562944</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <f>$F6-($F6*15%)</f>
-        <v>203617.09231040717</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>239549.5203651849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -471,23 +477,19 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:B18" si="0">$F7-($F7*23%)</f>
-        <v>5804.7219999999998</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="B7:C18" si="1">$F7-($F7*45%)</f>
-        <v>4146.2299999999996</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <f t="shared" ref="C7:D18" si="2">$F7-($F7*30%)</f>
-        <v>5277.02</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E18" si="3">$F7-($F7*15%)</f>
-        <v>6407.81</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>7538.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -495,23 +497,19 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>4375.1399999999994</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
-        <v>3125.1</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
-        <v>3977.4</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <f t="shared" si="3"/>
-        <v>4829.7</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>5682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -519,23 +517,19 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>8733.34</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
-        <v>6238.0999999999995</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
-        <v>7939.4</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <f t="shared" si="3"/>
-        <v>9640.7000000000007</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>11342</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -543,23 +537,19 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>28891.208500000001</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
-        <v>20636.577499999999</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>26264.735000000001</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <f t="shared" si="3"/>
-        <v>31892.892500000002</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>37521.050000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -567,23 +557,19 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>2964.5</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
-        <v>2117.5</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>2695</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <f t="shared" si="3"/>
-        <v>3272.5</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3850</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -591,23 +577,19 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>4366.67</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
-        <v>3119.0499999999997</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>3969.7</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
-        <v>4820.3500000000004</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>5671</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -615,23 +597,19 @@
         <v>8</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>1462.23</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
-        <v>1044.4499999999998</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
-        <v>1329.3000000000002</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
-        <v>1614.15</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -639,23 +617,19 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>1327.48</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
-        <v>948.19999999999993</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>1206.8000000000002</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
-        <v>1465.4</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -663,23 +637,19 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>23100</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
-        <v>25500</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>30000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -687,23 +657,19 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>4549.93</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
-        <v>3249.95</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
-        <v>4136.3</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" si="3"/>
-        <v>5022.6499999999996</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>5909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -711,23 +677,19 @@
         <v>12</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>130900</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
-        <v>93500</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
-        <v>119000</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <f t="shared" si="3"/>
-        <v>144500</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>170000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -735,23 +697,19 @@
         <v>13</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>69515.731181192372</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
-        <v>49654.093700851692</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
-        <v>63196.119255629426</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
-        <v>76738.144810407161</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>90280.170365184895</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
